--- a/plpgsql-trigger/トリガ関数.xlsx
+++ b/plpgsql-trigger/トリガ関数.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20384"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4F5DE09-ACFA-428F-B68B-33F139A59818}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E4B7452-F764-4884-B6B5-0ED4EAE27D56}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="10590" windowHeight="8040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="306">
   <si>
     <t xml:space="preserve">        END IF;</t>
   </si>
@@ -278,12 +278,717 @@
   <si>
     <t xml:space="preserve">    FOR EACH ROW EXECUTE FUNCTION emp_stamp();</t>
   </si>
+  <si>
+    <t>insert into emp (salary) values (0);</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ERROR: empname cannot be null CONTEXT: PL/pgSQL function emp_stamp() line 6 at RAISE SQL 状態: P0001</t>
+  </si>
+  <si>
+    <t>insert into emp (empname) values ('ABC');</t>
+  </si>
+  <si>
+    <t>ERROR: ABC cannot have null salary CONTEXT: PL/pgSQL function emp_stamp() line 9 at RAISE SQL 状態: P0001</t>
+  </si>
+  <si>
+    <t>insert into emp (empname,salary) values ('ABC', -1);</t>
+  </si>
+  <si>
+    <t>ERROR: ABC cannot have a negative salary CONTEXT: PL/pgSQL function emp_stamp() line 15 at RAISE SQL 状態: P0001</t>
+  </si>
+  <si>
+    <t>insert into emp (empname,salary) values ('ABC', 1);</t>
+  </si>
+  <si>
+    <t>ABC</t>
+  </si>
+  <si>
+    <t>postgres</t>
+  </si>
+  <si>
+    <t>table emp;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">テーブルにおける変更のログを取る他の方法は、挿入、更新または削除の各々に対する行を保有する新テーブルを作成することです。 </t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>この方法はテーブルにおける変更の監査と考えることができます。PL/pgSQLによる監査用トリガ関数の一例を示します。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DROP table emp;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    empname           text NOT NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    salary            integer</t>
+  </si>
+  <si>
+    <t>CREATE TABLE emp_audit(</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    operation         char(1)   NOT NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    stamp             timestamp NOT NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    userid            text      NOT NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    empname           text      NOT NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    salary integer</t>
+  </si>
+  <si>
+    <t>CREATE OR REPLACE FUNCTION process_emp_audit() RETURNS TRIGGER AS $emp_audit$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        --</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        -- empで行った操作を反映する行をemp_auditに作成</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        -- 操作の種類を決定するために、特殊な変数TG_OPを活用</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        IF (TG_OP = 'DELETE') THEN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            INSERT INTO emp_audit SELECT 'D', now(), user, OLD.*;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        ELSIF (TG_OP = 'UPDATE') THEN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            INSERT INTO emp_audit SELECT 'U', now(), user, NEW.*;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        ELSIF (TG_OP = 'INSERT') THEN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            INSERT INTO emp_audit SELECT 'I', now(), user, NEW.*;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        RETURN NULL; -- AFTERトリガですので、結果は無視されます</t>
+  </si>
+  <si>
+    <t>$emp_audit$ LANGUAGE plpgsql;</t>
+  </si>
+  <si>
+    <t>CREATE TRIGGER emp_audit</t>
+  </si>
+  <si>
+    <t>AFTER INSERT OR UPDATE OR DELETE ON emp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    FOR EACH ROW EXECUTE FUNCTION process_emp_audit();</t>
+  </si>
+  <si>
+    <t>insert into emp (empname,salary) values ('X',1);</t>
+  </si>
+  <si>
+    <t>insert into emp (empname,salary) values ('Y',100);</t>
+  </si>
+  <si>
+    <t>update emp set empname = 'Z' where empname ='X';</t>
+  </si>
+  <si>
+    <t>delete from emp where empname = 'Z';</t>
+  </si>
+  <si>
+    <t>psql -U postgres -p 5432 -d sample -c "table emp_audit;"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> operation |           stamp            |  userid  | empname | salary</t>
+  </si>
+  <si>
+    <t>-----------+----------------------------+----------+---------+--------</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I         | 2022-03-18 21:52:11.105884 | postgres | X       |      1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I         | 2022-03-18 21:52:11.105884 | postgres | Y       |    100</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> U         | 2022-03-18 21:52:11.105884 | postgres | Z       |      1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> D         | 2022-03-18 21:52:11.105884 | postgres | Z       |      1</t>
+  </si>
+  <si>
+    <t>(4 行)</t>
+  </si>
+  <si>
+    <t>前例の変形では、各エントリが最終修正された時を表示するため、主テーブルを監査テーブルに結合したビューを使用します。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> この方法でもテーブルの変化の監査証跡を全て記録できますが、監査証跡から抽出した各エントリの最終修正のタイムスタンプ表示することにより、</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>監査証跡の簡単なビューを表示することにもなります。</t>
+  </si>
+  <si>
+    <t>・PL/pgSQLトリガ関数</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・ PL/pgSQLによる監査用のトリガ関数</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・監査のためのPL/pgSQLビュートリガ関数</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DROP TABLE emp,emp_audit ;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    empname           text PRIMARY KEY,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    salary            integer,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    stamp             timestamp NOT NULL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    SELECT e.empname,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           e.salary,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           max(ea.stamp) AS last_updated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      FROM emp e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      LEFT JOIN emp_audit ea ON ea.empname = e.empname</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     GROUP BY 1, 2;</t>
+  </si>
+  <si>
+    <t>CREATE OR REPLACE FUNCTION update_emp_view() RETURNS TRIGGER AS $$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        -- 要求された操作を emp に実行し</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        -- emp_audit に行を作成し</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        -- emp の変化を反映する</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            DELETE FROM emp WHERE empname = OLD.empname;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            IF NOT FOUND THEN RETURN NULL; END IF;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            OLD.last_updated = now();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            INSERT INTO emp_audit VALUES('D', user, OLD.*);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            RETURN OLD;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            UPDATE emp SET salary = NEW.salary WHERE empname = OLD.empname;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            NEW.last_updated = now();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            INSERT INTO emp_audit VALUES('U', user, NEW.*);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            RETURN NEW;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            INSERT INTO emp VALUES(NEW.empname, NEW.salary);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            INSERT INTO emp_audit VALUES('I', user, NEW.*);</t>
+  </si>
+  <si>
+    <t>$$ LANGUAGE plpgsql;</t>
+  </si>
+  <si>
+    <t>INSTEAD OF INSERT OR UPDATE OR DELETE ON emp_view</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    FOR EACH ROW EXECUTE FUNCTION update_emp_view();</t>
+  </si>
+  <si>
+    <t>CREATE VIEW emp_view AS</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>insert into emp (empname,salary) values ('A',5);</t>
+  </si>
+  <si>
+    <t>insert into emp_view (empname,salary) values ('ABC',9999);</t>
+  </si>
+  <si>
+    <t>update emp_view set empname ='Q' where empname = 'Y';</t>
+  </si>
+  <si>
+    <t>psql -U postgres -p 5432 -d sample -c "table emp_view;;"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> empname | salary |        last_updated</t>
+  </si>
+  <si>
+    <t>---------+--------+----------------------------</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ABC     |   9999 | 2022-03-18 22:50:32.771793</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A       |      5 |</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Y       |    100 |</t>
+  </si>
+  <si>
+    <t>(3 行)</t>
+  </si>
+  <si>
+    <t>サマリテーブルを維持するためのPL/pgSQLトリガ関数</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CREATE TABLE time_dimension (</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    time_key                    integer NOT NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    day_of_week                 integer NOT NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    day_of_month                integer NOT NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    month                       integer NOT NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    quarter                     integer NOT NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    year                        integer NOT NULL</t>
+  </si>
+  <si>
+    <t>CREATE UNIQUE INDEX time_dimension_key ON time_dimension(time_key);</t>
+  </si>
+  <si>
+    <t>CREATE TABLE sales_fact (</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    product_key                 integer NOT NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    store_key                   integer NOT NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    amount_sold                 numeric(12,2) NOT NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    units_sold                  integer NOT NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    amount_cost                 numeric(12,2) NOT NULL</t>
+  </si>
+  <si>
+    <t>CREATE INDEX sales_fact_time ON sales_fact(time_key);</t>
+  </si>
+  <si>
+    <t>--</t>
+  </si>
+  <si>
+    <t>-- sales by timeのサマリテーブル</t>
+  </si>
+  <si>
+    <t>CREATE TABLE sales_summary_bytime (</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    amount_sold                 numeric(15,2) NOT NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    units_sold                  numeric(12) NOT NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    amount_cost                 numeric(15,2) NOT NULL</t>
+  </si>
+  <si>
+    <t>CREATE UNIQUE INDEX sales_summary_bytime_key ON sales_summary_bytime(time_key);</t>
+  </si>
+  <si>
+    <t>-- 更新、挿入および削除によりサマリテーブルの列を修正する関数とトリガ</t>
+  </si>
+  <si>
+    <t>CREATE OR REPLACE FUNCTION maint_sales_summary_bytime() RETURNS TRIGGER</t>
+  </si>
+  <si>
+    <t>AS $maint_sales_summary_bytime$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    DECLARE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        delta_time_key          integer;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        delta_amount_sold       numeric(15,2);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        delta_units_sold        numeric(12);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        delta_amount_cost       numeric(15,2);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        -- 増加または減少量を算出</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            delta_time_key = OLD.time_key;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            delta_amount_sold = -1 * OLD.amount_sold;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            delta_units_sold = -1 * OLD.units_sold;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            delta_amount_cost = -1 * OLD.amount_cost;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            -- time_keyを変更する更新を禁止します</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            -- （削除 + 挿入の方法により大部分の変更を行うため</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            -- それほど厄介ではありません）。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            IF ( OLD.time_key != NEW.time_key) THEN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                RAISE EXCEPTION 'Update of time_key : % -&gt; % not allowed',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                      OLD.time_key, NEW.time_key;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            END IF;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            delta_amount_sold = NEW.amount_sold - OLD.amount_sold;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            delta_units_sold = NEW.units_sold - OLD.units_sold;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            delta_amount_cost = NEW.amount_cost - OLD.amount_cost;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            delta_time_key = NEW.time_key;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            delta_amount_sold = NEW.amount_sold;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            delta_units_sold = NEW.units_sold;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            delta_amount_cost = NEW.amount_cost;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        -- サマリテーブルの行を挿入または新しい値で更新します。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        &lt;&lt;insert_update&gt;&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        LOOP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            UPDATE sales_summary_bytime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                SET amount_sold = amount_sold + delta_amount_sold,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    units_sold = units_sold + delta_units_sold,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    amount_cost = amount_cost + delta_amount_cost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                WHERE time_key = delta_time_key;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            EXIT insert_update WHEN found;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            BEGIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                INSERT INTO sales_summary_bytime (</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                            time_key,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                            amount_sold,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                            units_sold,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                            amount_cost)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    VALUES (</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                            delta_time_key,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                            delta_amount_sold,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                            delta_units_sold,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                            delta_amount_cost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                           );</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                EXIT insert_update;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            EXCEPTION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                WHEN UNIQUE_VIOLATION THEN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    -- 何もしません</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            END;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        END LOOP insert_update;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        RETURN NULL;</t>
+  </si>
+  <si>
+    <t>$maint_sales_summary_bytime$ LANGUAGE plpgsql;</t>
+  </si>
+  <si>
+    <t>CREATE TRIGGER maint_sales_summary_bytime</t>
+  </si>
+  <si>
+    <t>AFTER INSERT OR UPDATE OR DELETE ON sales_fact</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    FOR EACH ROW EXECUTE FUNCTION maint_sales_summary_bytime();</t>
+  </si>
+  <si>
+    <t>INSERT INTO sales_fact VALUES(1,1,1,10,3,15);</t>
+  </si>
+  <si>
+    <t>INSERT INTO sales_fact VALUES(1,2,1,20,5,35);</t>
+  </si>
+  <si>
+    <t>INSERT INTO sales_fact VALUES(2,2,1,40,15,135);</t>
+  </si>
+  <si>
+    <t>INSERT INTO sales_fact VALUES(2,3,1,10,1,13);</t>
+  </si>
+  <si>
+    <t>SELECT * FROM sales_summary_bytime;</t>
+  </si>
+  <si>
+    <t>DELETE FROM sales_fact WHERE product_key = 1;</t>
+  </si>
+  <si>
+    <t>UPDATE sales_fact SET units_sold = units_sold * 2;</t>
+  </si>
+  <si>
+    <t>psql -U postgres -p 5432 -d sample -c "SELECT * FROM sales_summary_bytime;"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> time_key | amount_sold | units_sold | amount_cost</t>
+  </si>
+  <si>
+    <t>----------+-------------+------------+-------------</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        1 |       20.00 |         10 |       35.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        2 |       50.00 |         32 |      148.00</t>
+  </si>
+  <si>
+    <t>(2 行)</t>
+  </si>
+  <si>
+    <t>トリガの使用目的の1つは、あるテーブルのサマリテーブルを維持することです。 結果のサマリテーブルは、</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>元のテーブルに代わって、ある種の問い合わせに対して使用でき、しばしば実行時間を大幅に縮小します。 通常この手法は、</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">計測または観測データ（ファクトテーブルと言います）が非常に大きくなるかもしれない、データウェアハウスに使用されます。 </t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>データウェアハウス内のファクトテーブルに対してサマリテーブルを維持するPL/pgSQLのトリガ関数の例を示します。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>AFTERトリガは、トリガ文により変更された行の集合全体を調べるために遷移テーブルを使うこともできます。 CREATE TRIGGERコマンドで名前</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>を1つまたは2つの遷移テーブルに割り当てると、関数はその名前を読み込み専用の一時テーブルであるかのように参照できます。 </t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>遷移テーブルでの監査</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        -- empで実行された操作を反映するためにemp_auditに行を作り、</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        -- 操作を完了するために特殊な変数TG_OPを使う。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            INSERT INTO emp_audit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                SELECT 'D', now(), user, o.* FROM old_table o;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                SELECT 'U', now(), user, n.* FROM new_table n;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                SELECT 'I', now(), user, n.* FROM new_table n;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        RETURN NULL; -- これはAFTERトリガなので結果は無視される</t>
+  </si>
+  <si>
+    <t>CREATE TRIGGER emp_audit_ins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    AFTER INSERT ON emp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    REFERENCING NEW TABLE AS new_table</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    FOR EACH STATEMENT EXECUTE FUNCTION process_emp_audit();</t>
+  </si>
+  <si>
+    <t>CREATE TRIGGER emp_audit_upd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    AFTER UPDATE ON emp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    REFERENCING OLD TABLE AS old_table NEW TABLE AS new_table</t>
+  </si>
+  <si>
+    <t>CREATE TRIGGER emp_audit_del</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    AFTER DELETE ON emp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    REFERENCING OLD TABLE AS old_table</t>
+  </si>
+  <si>
+    <t>イベントによるトリガ</t>
+  </si>
+  <si>
+    <t>PL/pgSQL関数がイベントトリガとして呼び出された場合、数個の特別な変数が最高レベルのブロックで自動的に作成されます。 以下に示します。</t>
+  </si>
+  <si>
+    <t>TG_EVENT</t>
+  </si>
+  <si>
+    <t>textデータ型。 トリガが発行されたイベントを示す文字列。</t>
+  </si>
+  <si>
+    <t>TG_TAG</t>
+  </si>
+  <si>
+    <t>textデータ型。 トリガが発行されたコマンドタグを含む変数。</t>
+  </si>
+  <si>
+    <t>PL/pgSQLはイベントトリガの定義に使用できます。 イベントトリガとして呼び出される関数は、引数のない関数として宣言され、</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>戻り値の型はevent_triggerとなることがPostgreSQLでは必須です。</t>
+  </si>
+  <si>
+    <t>PL/pgSQLイベントトリガ関数</t>
+  </si>
+  <si>
+    <t>以下の例では、サポートされたコマンドが実行されたとき、トリガはNOTICEを発生させるだけです。</t>
+  </si>
+  <si>
+    <t>CREATE OR REPLACE FUNCTION snitch() RETURNS event_trigger AS $$</t>
+  </si>
+  <si>
+    <t>BEGIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    RAISE NOTICE 'snitch: % %', tg_event, tg_tag;</t>
+  </si>
+  <si>
+    <t>END;</t>
+  </si>
+  <si>
+    <t>CREATE EVENT TRIGGER snitch ON ddl_command_start EXECUTE FUNCTION snitch();</t>
+  </si>
+  <si>
+    <t>create table test_table(name text);</t>
+  </si>
+  <si>
+    <t>NOTICE: snitch: ddl_command_start CREATE TABLE CREATE TABLE クエリが 68 ミリ秒 で成功しました。</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -332,6 +1037,19 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -371,7 +1089,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -379,6 +1097,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="47" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -659,10 +1381,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:C80"/>
+  <dimension ref="B1:E442"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47:XFD80"/>
+    <sheetView tabSelected="1" topLeftCell="A429" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A441" sqref="A441:XFD442"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -920,6 +1642,11 @@
         <v>52</v>
       </c>
     </row>
+    <row r="46" spans="2:2">
+      <c r="B46" s="9" t="s">
+        <v>128</v>
+      </c>
+    </row>
     <row r="47" spans="2:2" s="5" customFormat="1">
       <c r="B47" s="5" t="s">
         <v>53</v>
@@ -1060,6 +1787,1559 @@
     <row r="80" spans="2:2" s="5" customFormat="1">
       <c r="B80" s="5" t="s">
         <v>76</v>
+      </c>
+    </row>
+    <row r="82" spans="2:5" s="5" customFormat="1">
+      <c r="B82" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="83" spans="2:5" s="5" customFormat="1">
+      <c r="B83" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="85" spans="2:5" s="5" customFormat="1">
+      <c r="B85" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="86" spans="2:5" s="5" customFormat="1">
+      <c r="B86" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="88" spans="2:5" s="5" customFormat="1">
+      <c r="B88" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="89" spans="2:5" s="5" customFormat="1">
+      <c r="B89" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="91" spans="2:5" s="5" customFormat="1">
+      <c r="B91" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="92" spans="2:5" s="5" customFormat="1">
+      <c r="B92" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="93" spans="2:5" s="5" customFormat="1">
+      <c r="B93" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C93" s="5">
+        <v>1</v>
+      </c>
+      <c r="D93" s="8">
+        <v>44638.905376608796</v>
+      </c>
+      <c r="E93" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="95" spans="2:5">
+      <c r="B95" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="96" spans="2:5">
+      <c r="B96" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2" s="9" customFormat="1">
+      <c r="B97" s="9" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="98" spans="2:2" s="5" customFormat="1">
+      <c r="B98" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="99" spans="2:2" s="5" customFormat="1">
+      <c r="B99" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="100" spans="2:2" s="5" customFormat="1">
+      <c r="B100" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="101" spans="2:2" s="5" customFormat="1">
+      <c r="B101" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="102" spans="2:2" s="5" customFormat="1">
+      <c r="B102" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="103" spans="2:2" s="5" customFormat="1"/>
+    <row r="104" spans="2:2" s="5" customFormat="1">
+      <c r="B104" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="105" spans="2:2" s="5" customFormat="1">
+      <c r="B105" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="106" spans="2:2" s="5" customFormat="1">
+      <c r="B106" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="107" spans="2:2" s="5" customFormat="1">
+      <c r="B107" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="108" spans="2:2" s="5" customFormat="1">
+      <c r="B108" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="109" spans="2:2" s="5" customFormat="1">
+      <c r="B109" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="110" spans="2:2" s="5" customFormat="1">
+      <c r="B110" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="111" spans="2:2" s="5" customFormat="1"/>
+    <row r="112" spans="2:2" s="5" customFormat="1">
+      <c r="B112" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="113" spans="2:2" s="5" customFormat="1">
+      <c r="B113" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="114" spans="2:2" s="5" customFormat="1">
+      <c r="B114" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="115" spans="2:2" s="5" customFormat="1"/>
+    <row r="116" spans="2:2" s="5" customFormat="1">
+      <c r="B116" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="117" spans="2:2" s="5" customFormat="1">
+      <c r="B117" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="118" spans="2:2" s="5" customFormat="1">
+      <c r="B118" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="119" spans="2:2" s="5" customFormat="1">
+      <c r="B119" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="120" spans="2:2" s="5" customFormat="1">
+      <c r="B120" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="121" spans="2:2" s="5" customFormat="1">
+      <c r="B121" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="122" spans="2:2" s="5" customFormat="1">
+      <c r="B122" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="123" spans="2:2" s="5" customFormat="1">
+      <c r="B123" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="124" spans="2:2" s="5" customFormat="1">
+      <c r="B124" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="125" spans="2:2" s="5" customFormat="1">
+      <c r="B125" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="2:2" s="5" customFormat="1"/>
+    <row r="127" spans="2:2" s="5" customFormat="1">
+      <c r="B127" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="128" spans="2:2" s="5" customFormat="1">
+      <c r="B128" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="129" spans="2:2" s="5" customFormat="1">
+      <c r="B129" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="130" spans="2:2" s="5" customFormat="1"/>
+    <row r="131" spans="2:2" s="5" customFormat="1">
+      <c r="B131" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="132" spans="2:2" s="5" customFormat="1">
+      <c r="B132" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="133" spans="2:2" s="5" customFormat="1">
+      <c r="B133" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="135" spans="2:2" s="5" customFormat="1">
+      <c r="B135" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="136" spans="2:2" s="5" customFormat="1">
+      <c r="B136" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="137" spans="2:2" s="5" customFormat="1">
+      <c r="B137" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="138" spans="2:2" s="5" customFormat="1">
+      <c r="B138" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="141" spans="2:2" s="5" customFormat="1">
+      <c r="B141" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="142" spans="2:2" s="5" customFormat="1">
+      <c r="B142" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="143" spans="2:2" s="5" customFormat="1">
+      <c r="B143" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="144" spans="2:2" s="5" customFormat="1">
+      <c r="B144" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="145" spans="2:2" s="5" customFormat="1">
+      <c r="B145" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="146" spans="2:2" s="5" customFormat="1">
+      <c r="B146" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="147" spans="2:2" s="5" customFormat="1">
+      <c r="B147" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="148" spans="2:2" s="5" customFormat="1">
+      <c r="B148" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="150" spans="2:2">
+      <c r="B150" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="151" spans="2:2">
+      <c r="B151" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="152" spans="2:2">
+      <c r="B152" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="154" spans="2:2">
+      <c r="B154" s="9" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="155" spans="2:2" s="5" customFormat="1">
+      <c r="B155" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="156" spans="2:2" s="5" customFormat="1">
+      <c r="B156" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="157" spans="2:2" s="5" customFormat="1">
+      <c r="B157" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="158" spans="2:2" s="5" customFormat="1">
+      <c r="B158" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="159" spans="2:2" s="5" customFormat="1">
+      <c r="B159" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="160" spans="2:2" s="5" customFormat="1"/>
+    <row r="161" spans="2:2" s="5" customFormat="1">
+      <c r="B161" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="162" spans="2:2" s="5" customFormat="1">
+      <c r="B162" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="163" spans="2:2" s="5" customFormat="1">
+      <c r="B163" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="164" spans="2:2" s="5" customFormat="1">
+      <c r="B164" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="165" spans="2:2" s="5" customFormat="1">
+      <c r="B165" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="166" spans="2:2" s="5" customFormat="1">
+      <c r="B166" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="167" spans="2:2" s="5" customFormat="1">
+      <c r="B167" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="168" spans="2:2" s="5" customFormat="1"/>
+    <row r="169" spans="2:2" s="5" customFormat="1">
+      <c r="B169" s="5" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="170" spans="2:2" s="5" customFormat="1">
+      <c r="B170" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="171" spans="2:2" s="5" customFormat="1">
+      <c r="B171" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="172" spans="2:2" s="5" customFormat="1">
+      <c r="B172" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="173" spans="2:2" s="5" customFormat="1">
+      <c r="B173" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="174" spans="2:2" s="5" customFormat="1">
+      <c r="B174" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="175" spans="2:2" s="5" customFormat="1">
+      <c r="B175" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="176" spans="2:2" s="5" customFormat="1"/>
+    <row r="177" spans="2:2" s="5" customFormat="1">
+      <c r="B177" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="178" spans="2:2" s="5" customFormat="1">
+      <c r="B178" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="179" spans="2:2" s="5" customFormat="1">
+      <c r="B179" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="180" spans="2:2" s="5" customFormat="1"/>
+    <row r="181" spans="2:2" s="5" customFormat="1">
+      <c r="B181" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="182" spans="2:2" s="5" customFormat="1">
+      <c r="B182" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="183" spans="2:2" s="5" customFormat="1">
+      <c r="B183" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="184" spans="2:2" s="5" customFormat="1">
+      <c r="B184" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="185" spans="2:2" s="5" customFormat="1">
+      <c r="B185" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="186" spans="2:2" s="5" customFormat="1">
+      <c r="B186" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="187" spans="2:2" s="5" customFormat="1">
+      <c r="B187" s="5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="188" spans="2:2" s="5" customFormat="1"/>
+    <row r="189" spans="2:2" s="5" customFormat="1">
+      <c r="B189" s="5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="190" spans="2:2" s="5" customFormat="1">
+      <c r="B190" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="191" spans="2:2" s="5" customFormat="1">
+      <c r="B191" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="192" spans="2:2" s="5" customFormat="1">
+      <c r="B192" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="193" spans="2:2" s="5" customFormat="1">
+      <c r="B193" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="194" spans="2:2" s="5" customFormat="1">
+      <c r="B194" s="5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="195" spans="2:2" s="5" customFormat="1"/>
+    <row r="196" spans="2:2" s="5" customFormat="1">
+      <c r="B196" s="5" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="197" spans="2:2" s="5" customFormat="1">
+      <c r="B197" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="198" spans="2:2" s="5" customFormat="1">
+      <c r="B198" s="5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="199" spans="2:2" s="5" customFormat="1">
+      <c r="B199" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="200" spans="2:2" s="5" customFormat="1">
+      <c r="B200" s="5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="201" spans="2:2" s="5" customFormat="1"/>
+    <row r="202" spans="2:2" s="5" customFormat="1">
+      <c r="B202" s="5" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="203" spans="2:2" s="5" customFormat="1">
+      <c r="B203" s="5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="204" spans="2:2" s="5" customFormat="1">
+      <c r="B204" s="5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="205" spans="2:2" s="5" customFormat="1">
+      <c r="B205" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="2:2" s="5" customFormat="1">
+      <c r="B206" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="207" spans="2:2" s="5" customFormat="1">
+      <c r="B207" s="5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="208" spans="2:2" s="5" customFormat="1"/>
+    <row r="209" spans="2:2" s="5" customFormat="1">
+      <c r="B209" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="210" spans="2:2" s="5" customFormat="1">
+      <c r="B210" s="5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="211" spans="2:2" s="5" customFormat="1">
+      <c r="B211" s="5" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="213" spans="2:2" s="5" customFormat="1">
+      <c r="B213" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="214" spans="2:2" s="5" customFormat="1">
+      <c r="B214" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="215" spans="2:2" s="5" customFormat="1">
+      <c r="B215" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="216" spans="2:2" s="5" customFormat="1">
+      <c r="B216" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="217" spans="2:2" s="5" customFormat="1">
+      <c r="B217" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="219" spans="2:2" s="5" customFormat="1">
+      <c r="B219" s="5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="220" spans="2:2" s="5" customFormat="1">
+      <c r="B220" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="221" spans="2:2" s="5" customFormat="1">
+      <c r="B221" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="222" spans="2:2" s="5" customFormat="1">
+      <c r="B222" s="5" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="223" spans="2:2" s="5" customFormat="1">
+      <c r="B223" s="5" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="224" spans="2:2" s="5" customFormat="1">
+      <c r="B224" s="5" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="225" spans="2:2" s="5" customFormat="1">
+      <c r="B225" s="5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="226" spans="2:2" s="5" customFormat="1">
+      <c r="B226" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="227" spans="2:2" s="5" customFormat="1">
+      <c r="B227" s="5" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="229" spans="2:2">
+      <c r="B229" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="230" spans="2:2">
+      <c r="B230" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="231" spans="2:2">
+      <c r="B231" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="232" spans="2:2">
+      <c r="B232" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="233" spans="2:2">
+      <c r="B233" s="9" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="234" spans="2:2" s="5" customFormat="1">
+      <c r="B234" s="5" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="235" spans="2:2" s="5" customFormat="1">
+      <c r="B235" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="236" spans="2:2" s="5" customFormat="1">
+      <c r="B236" s="5" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="237" spans="2:2" s="5" customFormat="1">
+      <c r="B237" s="5" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="238" spans="2:2" s="5" customFormat="1">
+      <c r="B238" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="239" spans="2:2" s="5" customFormat="1">
+      <c r="B239" s="5" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="240" spans="2:2" s="5" customFormat="1">
+      <c r="B240" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="241" spans="2:2" s="5" customFormat="1">
+      <c r="B241" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="242" spans="2:2" s="5" customFormat="1">
+      <c r="B242" s="5" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="243" spans="2:2" s="5" customFormat="1"/>
+    <row r="244" spans="2:2" s="5" customFormat="1">
+      <c r="B244" s="5" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="245" spans="2:2" s="5" customFormat="1">
+      <c r="B245" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="246" spans="2:2" s="5" customFormat="1">
+      <c r="B246" s="5" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="247" spans="2:2" s="5" customFormat="1">
+      <c r="B247" s="5" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="248" spans="2:2" s="5" customFormat="1">
+      <c r="B248" s="5" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="249" spans="2:2" s="5" customFormat="1">
+      <c r="B249" s="5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="250" spans="2:2" s="5" customFormat="1">
+      <c r="B250" s="5" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="251" spans="2:2" s="5" customFormat="1">
+      <c r="B251" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="252" spans="2:2" s="5" customFormat="1">
+      <c r="B252" s="5" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="253" spans="2:2" s="5" customFormat="1"/>
+    <row r="254" spans="2:2" s="5" customFormat="1">
+      <c r="B254" s="5" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="255" spans="2:2" s="5" customFormat="1"/>
+    <row r="256" spans="2:2" s="5" customFormat="1">
+      <c r="B256" s="5" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="257" spans="2:2" s="5" customFormat="1">
+      <c r="B257" s="5" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="258" spans="2:2" s="5" customFormat="1">
+      <c r="B258" s="5" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="259" spans="2:2" s="5" customFormat="1">
+      <c r="B259" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="260" spans="2:2" s="5" customFormat="1">
+      <c r="B260" s="5" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="261" spans="2:2" s="5" customFormat="1">
+      <c r="B261" s="5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="262" spans="2:2" s="5" customFormat="1">
+      <c r="B262" s="5" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="263" spans="2:2" s="5" customFormat="1">
+      <c r="B263" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="264" spans="2:2" s="5" customFormat="1">
+      <c r="B264" s="5" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="265" spans="2:2" s="5" customFormat="1"/>
+    <row r="266" spans="2:2" s="5" customFormat="1">
+      <c r="B266" s="5" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="267" spans="2:2" s="5" customFormat="1"/>
+    <row r="268" spans="2:2" s="5" customFormat="1">
+      <c r="B268" s="5" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="269" spans="2:2" s="5" customFormat="1">
+      <c r="B269" s="5" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="270" spans="2:2" s="5" customFormat="1">
+      <c r="B270" s="5" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="271" spans="2:2" s="5" customFormat="1">
+      <c r="B271" s="5" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="272" spans="2:2" s="5" customFormat="1">
+      <c r="B272" s="5" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="273" spans="2:2" s="5" customFormat="1">
+      <c r="B273" s="5" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="274" spans="2:2" s="5" customFormat="1">
+      <c r="B274" s="5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="275" spans="2:2" s="5" customFormat="1">
+      <c r="B275" s="5" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="276" spans="2:2" s="5" customFormat="1">
+      <c r="B276" s="5" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="277" spans="2:2" s="5" customFormat="1">
+      <c r="B277" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="278" spans="2:2" s="5" customFormat="1"/>
+    <row r="279" spans="2:2" s="5" customFormat="1"/>
+    <row r="280" spans="2:2" s="5" customFormat="1">
+      <c r="B280" s="5" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="281" spans="2:2" s="5" customFormat="1">
+      <c r="B281" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="282" spans="2:2" s="5" customFormat="1"/>
+    <row r="283" spans="2:2" s="5" customFormat="1">
+      <c r="B283" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="284" spans="2:2" s="5" customFormat="1">
+      <c r="B284" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="285" spans="2:2" s="5" customFormat="1">
+      <c r="B285" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="286" spans="2:2" s="5" customFormat="1">
+      <c r="B286" s="5" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="287" spans="2:2" s="5" customFormat="1"/>
+    <row r="288" spans="2:2" s="5" customFormat="1">
+      <c r="B288" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="289" spans="2:2" s="5" customFormat="1"/>
+    <row r="290" spans="2:2" s="5" customFormat="1"/>
+    <row r="291" spans="2:2" s="5" customFormat="1">
+      <c r="B291" s="5" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="292" spans="2:2" s="5" customFormat="1">
+      <c r="B292" s="5" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="293" spans="2:2" s="5" customFormat="1">
+      <c r="B293" s="5" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="294" spans="2:2" s="5" customFormat="1">
+      <c r="B294" s="5" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="295" spans="2:2" s="5" customFormat="1">
+      <c r="B295" s="5" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="296" spans="2:2" s="5" customFormat="1">
+      <c r="B296" s="5" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="297" spans="2:2" s="5" customFormat="1">
+      <c r="B297" s="5" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="298" spans="2:2" s="5" customFormat="1"/>
+    <row r="299" spans="2:2" s="5" customFormat="1">
+      <c r="B299" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="300" spans="2:2" s="5" customFormat="1">
+      <c r="B300" s="5" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="301" spans="2:2" s="5" customFormat="1">
+      <c r="B301" s="5" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="302" spans="2:2" s="5" customFormat="1">
+      <c r="B302" s="5" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="303" spans="2:2" s="5" customFormat="1"/>
+    <row r="304" spans="2:2" s="5" customFormat="1">
+      <c r="B304" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="305" spans="2:2" s="5" customFormat="1"/>
+    <row r="306" spans="2:2" s="5" customFormat="1">
+      <c r="B306" s="5" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="307" spans="2:2" s="5" customFormat="1">
+      <c r="B307" s="5" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="308" spans="2:2" s="5" customFormat="1">
+      <c r="B308" s="5" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="309" spans="2:2" s="5" customFormat="1">
+      <c r="B309" s="5" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="310" spans="2:2" s="5" customFormat="1"/>
+    <row r="311" spans="2:2" s="5" customFormat="1">
+      <c r="B311" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="2:2" s="5" customFormat="1"/>
+    <row r="313" spans="2:2" s="5" customFormat="1"/>
+    <row r="314" spans="2:2" s="5" customFormat="1"/>
+    <row r="315" spans="2:2" s="5" customFormat="1">
+      <c r="B315" s="5" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="316" spans="2:2" s="5" customFormat="1">
+      <c r="B316" s="5" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="317" spans="2:2" s="5" customFormat="1">
+      <c r="B317" s="5" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="318" spans="2:2" s="5" customFormat="1">
+      <c r="B318" s="5" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="319" spans="2:2" s="5" customFormat="1">
+      <c r="B319" s="5" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="320" spans="2:2" s="5" customFormat="1">
+      <c r="B320" s="5" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="321" spans="2:2" s="5" customFormat="1">
+      <c r="B321" s="5" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="322" spans="2:2" s="5" customFormat="1">
+      <c r="B322" s="5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="323" spans="2:2" s="5" customFormat="1"/>
+    <row r="324" spans="2:2" s="5" customFormat="1">
+      <c r="B324" s="5" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="325" spans="2:2" s="5" customFormat="1"/>
+    <row r="326" spans="2:2" s="5" customFormat="1">
+      <c r="B326" s="5" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="327" spans="2:2" s="5" customFormat="1">
+      <c r="B327" s="5" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="328" spans="2:2" s="5" customFormat="1">
+      <c r="B328" s="5" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="329" spans="2:2" s="5" customFormat="1">
+      <c r="B329" s="5" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="330" spans="2:2" s="5" customFormat="1">
+      <c r="B330" s="5" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="331" spans="2:2" s="5" customFormat="1">
+      <c r="B331" s="5" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="332" spans="2:2" s="5" customFormat="1">
+      <c r="B332" s="5" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="333" spans="2:2" s="5" customFormat="1">
+      <c r="B333" s="5" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="334" spans="2:2" s="5" customFormat="1">
+      <c r="B334" s="5" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="335" spans="2:2" s="5" customFormat="1">
+      <c r="B335" s="5" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="336" spans="2:2" s="5" customFormat="1">
+      <c r="B336" s="5" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="337" spans="2:2" s="5" customFormat="1">
+      <c r="B337" s="5" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="338" spans="2:2" s="5" customFormat="1"/>
+    <row r="339" spans="2:2" s="5" customFormat="1">
+      <c r="B339" s="5" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="340" spans="2:2" s="5" customFormat="1"/>
+    <row r="341" spans="2:2" s="5" customFormat="1">
+      <c r="B341" s="5" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="342" spans="2:2" s="5" customFormat="1">
+      <c r="B342" s="5" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="343" spans="2:2" s="5" customFormat="1"/>
+    <row r="344" spans="2:2" s="5" customFormat="1">
+      <c r="B344" s="5" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="345" spans="2:2" s="5" customFormat="1">
+      <c r="B345" s="5" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="346" spans="2:2" s="5" customFormat="1">
+      <c r="B346" s="5" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="347" spans="2:2" s="5" customFormat="1"/>
+    <row r="348" spans="2:2" s="5" customFormat="1">
+      <c r="B348" s="5" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="349" spans="2:2" s="5" customFormat="1"/>
+    <row r="350" spans="2:2" s="5" customFormat="1">
+      <c r="B350" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="351" spans="2:2" s="5" customFormat="1">
+      <c r="B351" s="5" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="352" spans="2:2" s="5" customFormat="1"/>
+    <row r="353" spans="2:2" s="5" customFormat="1">
+      <c r="B353" s="5" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="354" spans="2:2" s="5" customFormat="1">
+      <c r="B354" s="5" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="355" spans="2:2" s="5" customFormat="1">
+      <c r="B355" s="5" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="356" spans="2:2" s="5" customFormat="1"/>
+    <row r="357" spans="2:2" s="5" customFormat="1">
+      <c r="B357" s="5" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="358" spans="2:2" s="5" customFormat="1">
+      <c r="B358" s="5" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="359" spans="2:2" s="5" customFormat="1">
+      <c r="B359" s="5" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="360" spans="2:2" s="5" customFormat="1">
+      <c r="B360" s="5" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="361" spans="2:2" s="5" customFormat="1">
+      <c r="B361" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="362" spans="2:2" s="5" customFormat="1">
+      <c r="B362" s="5" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="363" spans="2:2" s="5" customFormat="1">
+      <c r="B363" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="364" spans="2:2" s="5" customFormat="1">
+      <c r="B364" s="5" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="365" spans="2:2" s="5" customFormat="1">
+      <c r="B365" s="5" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="366" spans="2:2" s="5" customFormat="1">
+      <c r="B366" s="5" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="367" spans="2:2" s="5" customFormat="1">
+      <c r="B367" s="5" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="368" spans="2:2" s="5" customFormat="1">
+      <c r="B368" s="5" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="369" spans="2:2" s="5" customFormat="1">
+      <c r="B369" s="5" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="370" spans="2:2" s="5" customFormat="1">
+      <c r="B370" s="5" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="372" spans="2:2">
+      <c r="B372" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="373" spans="2:2">
+      <c r="B373" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="374" spans="2:2">
+      <c r="B374" s="9" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="375" spans="2:2" s="5" customFormat="1">
+      <c r="B375" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="376" spans="2:2" s="5" customFormat="1">
+      <c r="B376" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="377" spans="2:2" s="5" customFormat="1">
+      <c r="B377" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="378" spans="2:2" s="5" customFormat="1">
+      <c r="B378" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="379" spans="2:2" s="5" customFormat="1"/>
+    <row r="380" spans="2:2" s="5" customFormat="1">
+      <c r="B380" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="381" spans="2:2" s="5" customFormat="1">
+      <c r="B381" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="382" spans="2:2" s="5" customFormat="1">
+      <c r="B382" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="383" spans="2:2" s="5" customFormat="1">
+      <c r="B383" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="384" spans="2:2" s="5" customFormat="1">
+      <c r="B384" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="385" spans="2:2" s="5" customFormat="1">
+      <c r="B385" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="386" spans="2:2" s="5" customFormat="1">
+      <c r="B386" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="387" spans="2:2" s="5" customFormat="1"/>
+    <row r="388" spans="2:2" s="5" customFormat="1">
+      <c r="B388" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="389" spans="2:2" s="5" customFormat="1">
+      <c r="B389" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="390" spans="2:2" s="5" customFormat="1">
+      <c r="B390" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="391" spans="2:2" s="5" customFormat="1"/>
+    <row r="392" spans="2:2" s="5" customFormat="1">
+      <c r="B392" s="5" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="393" spans="2:2" s="5" customFormat="1">
+      <c r="B393" s="5" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="394" spans="2:2" s="5" customFormat="1">
+      <c r="B394" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="395" spans="2:2" s="5" customFormat="1">
+      <c r="B395" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="396" spans="2:2" s="5" customFormat="1">
+      <c r="B396" s="5" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="397" spans="2:2" s="5" customFormat="1">
+      <c r="B397" s="5" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="398" spans="2:2" s="5" customFormat="1">
+      <c r="B398" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="399" spans="2:2" s="5" customFormat="1">
+      <c r="B399" s="5" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="400" spans="2:2" s="5" customFormat="1">
+      <c r="B400" s="5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="401" spans="2:2" s="5" customFormat="1">
+      <c r="B401" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="402" spans="2:2" s="5" customFormat="1">
+      <c r="B402" s="5" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="403" spans="2:2" s="5" customFormat="1">
+      <c r="B403" s="5" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="404" spans="2:2" s="5" customFormat="1">
+      <c r="B404" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="405" spans="2:2" s="5" customFormat="1"/>
+    <row r="406" spans="2:2" s="5" customFormat="1">
+      <c r="B406" s="5" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="407" spans="2:2" s="5" customFormat="1">
+      <c r="B407" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="408" spans="2:2" s="5" customFormat="1">
+      <c r="B408" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="409" spans="2:2" s="5" customFormat="1"/>
+    <row r="410" spans="2:2" s="5" customFormat="1">
+      <c r="B410" s="5" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="411" spans="2:2" s="5" customFormat="1">
+      <c r="B411" s="5" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="412" spans="2:2" s="5" customFormat="1">
+      <c r="B412" s="5" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="413" spans="2:2" s="5" customFormat="1">
+      <c r="B413" s="5" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="414" spans="2:2" s="5" customFormat="1">
+      <c r="B414" s="5" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="415" spans="2:2" s="5" customFormat="1">
+      <c r="B415" s="5" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="416" spans="2:2" s="5" customFormat="1">
+      <c r="B416" s="5" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="417" spans="2:3" s="5" customFormat="1">
+      <c r="B417" s="5" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="418" spans="2:3" s="5" customFormat="1">
+      <c r="B418" s="5" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="419" spans="2:3" s="5" customFormat="1">
+      <c r="B419" s="5" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="420" spans="2:3" s="5" customFormat="1">
+      <c r="B420" s="5" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="421" spans="2:3" s="5" customFormat="1">
+      <c r="B421" s="5" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="423" spans="2:3">
+      <c r="B423" s="4" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="424" spans="2:3">
+      <c r="B424" s="2" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="425" spans="2:3">
+      <c r="B425" s="2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="426" spans="2:3">
+      <c r="B426" s="2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="428" spans="2:3" s="6" customFormat="1">
+      <c r="B428" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="C428" s="6" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="429" spans="2:3" s="6" customFormat="1">
+      <c r="B429" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="C429" s="6" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="431" spans="2:3">
+      <c r="B431" s="9" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="432" spans="2:3">
+      <c r="B432" s="2" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="433" spans="2:2" s="7" customFormat="1">
+      <c r="B433" s="5" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="434" spans="2:2" s="7" customFormat="1">
+      <c r="B434" s="5" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="435" spans="2:2" s="7" customFormat="1">
+      <c r="B435" s="5" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="436" spans="2:2" s="7" customFormat="1">
+      <c r="B436" s="5" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="437" spans="2:2" s="7" customFormat="1">
+      <c r="B437" s="5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="438" spans="2:2" s="7" customFormat="1">
+      <c r="B438" s="5"/>
+    </row>
+    <row r="439" spans="2:2" s="7" customFormat="1">
+      <c r="B439" s="5" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="441" spans="2:2" s="5" customFormat="1">
+      <c r="B441" s="5" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="442" spans="2:2" s="5" customFormat="1">
+      <c r="B442" s="10" t="s">
+        <v>305</v>
       </c>
     </row>
   </sheetData>
